--- a/biology/Zoologie/Anolis_trachyderma/Anolis_trachyderma.xlsx
+++ b/biology/Zoologie/Anolis_trachyderma/Anolis_trachyderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis trachyderma est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis trachyderma est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Colombie, en Équateur, au Pérou et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Colombie, en Équateur, au Pérou et au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1875 : Report on the Reptiles brought by Professor James Orton from the middle and upper Amazon and western Peru. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 159-183 (texte intégral).</t>
         </is>
